--- a/kadai/【課題１１】ドット絵作成/ドット絵作成.xlsx
+++ b/kadai/【課題１１】ドット絵作成/ドット絵作成.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\php_pra\kadai\【課題１１】ドット絵作成\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\php_pra_github\php_super_introduction\kadai\【課題１１】ドット絵作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19200" windowHeight="11610"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19200" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,8 +113,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -217,13 +223,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -294,6 +420,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -630,20 +789,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AX36"/>
+  <dimension ref="B2:BZ36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
+      <selection activeCell="BD3" sqref="BD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:50" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:78" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:50" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:78" x14ac:dyDescent="0.15">
       <c r="AP3" s="22"/>
       <c r="AQ3" s="22"/>
       <c r="AR3" s="22"/>
@@ -654,8 +813,29 @@
       <c r="AX3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:50" x14ac:dyDescent="0.15">
+      <c r="BD3" s="24"/>
+      <c r="BE3" s="24"/>
+      <c r="BF3" s="24"/>
+      <c r="BG3" s="24"/>
+      <c r="BH3" s="24"/>
+      <c r="BI3" s="24"/>
+      <c r="BJ3" s="24"/>
+      <c r="BL3" s="24"/>
+      <c r="BM3" s="24"/>
+      <c r="BN3" s="24"/>
+      <c r="BO3" s="24"/>
+      <c r="BP3" s="24"/>
+      <c r="BQ3" s="24"/>
+      <c r="BR3" s="24"/>
+      <c r="BT3" s="24"/>
+      <c r="BU3" s="24"/>
+      <c r="BV3" s="24"/>
+      <c r="BW3" s="24"/>
+      <c r="BX3" s="24"/>
+      <c r="BY3" s="24"/>
+      <c r="BZ3" s="24"/>
+    </row>
+    <row r="4" spans="2:78" x14ac:dyDescent="0.15">
       <c r="AP4" s="22"/>
       <c r="AQ4" s="23"/>
       <c r="AR4" s="23"/>
@@ -663,8 +843,29 @@
       <c r="AT4" s="23"/>
       <c r="AU4" s="23"/>
       <c r="AV4" s="22"/>
-    </row>
-    <row r="5" spans="2:50" x14ac:dyDescent="0.15">
+      <c r="BD4" s="24"/>
+      <c r="BE4" s="25"/>
+      <c r="BF4" s="25"/>
+      <c r="BG4" s="25"/>
+      <c r="BH4" s="25"/>
+      <c r="BI4" s="24"/>
+      <c r="BJ4" s="24"/>
+      <c r="BL4" s="24"/>
+      <c r="BM4" s="25"/>
+      <c r="BN4" s="25"/>
+      <c r="BO4" s="24"/>
+      <c r="BP4" s="25"/>
+      <c r="BQ4" s="25"/>
+      <c r="BR4" s="24"/>
+      <c r="BT4" s="24"/>
+      <c r="BU4" s="25"/>
+      <c r="BV4" s="25"/>
+      <c r="BW4" s="25"/>
+      <c r="BX4" s="25"/>
+      <c r="BY4" s="24"/>
+      <c r="BZ4" s="24"/>
+    </row>
+    <row r="5" spans="2:78" x14ac:dyDescent="0.15">
       <c r="AP5" s="22"/>
       <c r="AQ5" s="22"/>
       <c r="AR5" s="22"/>
@@ -672,8 +873,29 @@
       <c r="AT5" s="23"/>
       <c r="AU5" s="23"/>
       <c r="AV5" s="22"/>
-    </row>
-    <row r="6" spans="2:50" x14ac:dyDescent="0.15">
+      <c r="BD5" s="24"/>
+      <c r="BE5" s="25"/>
+      <c r="BF5" s="25"/>
+      <c r="BG5" s="24"/>
+      <c r="BH5" s="25"/>
+      <c r="BI5" s="25"/>
+      <c r="BJ5" s="24"/>
+      <c r="BL5" s="24"/>
+      <c r="BM5" s="25"/>
+      <c r="BN5" s="25"/>
+      <c r="BO5" s="24"/>
+      <c r="BP5" s="25"/>
+      <c r="BQ5" s="25"/>
+      <c r="BR5" s="24"/>
+      <c r="BT5" s="24"/>
+      <c r="BU5" s="25"/>
+      <c r="BV5" s="25"/>
+      <c r="BW5" s="24"/>
+      <c r="BX5" s="25"/>
+      <c r="BY5" s="25"/>
+      <c r="BZ5" s="24"/>
+    </row>
+    <row r="6" spans="2:78" x14ac:dyDescent="0.15">
       <c r="AP6" s="22"/>
       <c r="AQ6" s="22"/>
       <c r="AR6" s="23"/>
@@ -681,8 +903,29 @@
       <c r="AT6" s="23"/>
       <c r="AU6" s="22"/>
       <c r="AV6" s="22"/>
-    </row>
-    <row r="7" spans="2:50" x14ac:dyDescent="0.15">
+      <c r="BD6" s="24"/>
+      <c r="BE6" s="25"/>
+      <c r="BF6" s="25"/>
+      <c r="BG6" s="24"/>
+      <c r="BH6" s="25"/>
+      <c r="BI6" s="25"/>
+      <c r="BJ6" s="24"/>
+      <c r="BL6" s="24"/>
+      <c r="BM6" s="25"/>
+      <c r="BN6" s="25"/>
+      <c r="BO6" s="25"/>
+      <c r="BP6" s="25"/>
+      <c r="BQ6" s="25"/>
+      <c r="BR6" s="24"/>
+      <c r="BT6" s="24"/>
+      <c r="BU6" s="25"/>
+      <c r="BV6" s="25"/>
+      <c r="BW6" s="24"/>
+      <c r="BX6" s="25"/>
+      <c r="BY6" s="25"/>
+      <c r="BZ6" s="24"/>
+    </row>
+    <row r="7" spans="2:78" x14ac:dyDescent="0.15">
       <c r="AP7" s="22"/>
       <c r="AQ7" s="23"/>
       <c r="AR7" s="23"/>
@@ -690,8 +933,29 @@
       <c r="AT7" s="22"/>
       <c r="AU7" s="22"/>
       <c r="AV7" s="22"/>
-    </row>
-    <row r="8" spans="2:50" x14ac:dyDescent="0.15">
+      <c r="BD7" s="24"/>
+      <c r="BE7" s="25"/>
+      <c r="BF7" s="25"/>
+      <c r="BG7" s="25"/>
+      <c r="BH7" s="25"/>
+      <c r="BI7" s="24"/>
+      <c r="BJ7" s="24"/>
+      <c r="BL7" s="24"/>
+      <c r="BM7" s="25"/>
+      <c r="BN7" s="25"/>
+      <c r="BO7" s="24"/>
+      <c r="BP7" s="25"/>
+      <c r="BQ7" s="25"/>
+      <c r="BR7" s="24"/>
+      <c r="BT7" s="24"/>
+      <c r="BU7" s="25"/>
+      <c r="BV7" s="25"/>
+      <c r="BW7" s="25"/>
+      <c r="BX7" s="25"/>
+      <c r="BY7" s="24"/>
+      <c r="BZ7" s="24"/>
+    </row>
+    <row r="8" spans="2:78" x14ac:dyDescent="0.15">
       <c r="AP8" s="22"/>
       <c r="AQ8" s="23"/>
       <c r="AR8" s="23"/>
@@ -699,8 +963,29 @@
       <c r="AT8" s="23"/>
       <c r="AU8" s="23"/>
       <c r="AV8" s="22"/>
-    </row>
-    <row r="9" spans="2:50" x14ac:dyDescent="0.15">
+      <c r="BD8" s="24"/>
+      <c r="BE8" s="25"/>
+      <c r="BF8" s="25"/>
+      <c r="BG8" s="24"/>
+      <c r="BH8" s="24"/>
+      <c r="BI8" s="24"/>
+      <c r="BJ8" s="24"/>
+      <c r="BL8" s="24"/>
+      <c r="BM8" s="25"/>
+      <c r="BN8" s="25"/>
+      <c r="BO8" s="24"/>
+      <c r="BP8" s="25"/>
+      <c r="BQ8" s="25"/>
+      <c r="BR8" s="24"/>
+      <c r="BT8" s="24"/>
+      <c r="BU8" s="25"/>
+      <c r="BV8" s="25"/>
+      <c r="BW8" s="24"/>
+      <c r="BX8" s="24"/>
+      <c r="BY8" s="24"/>
+      <c r="BZ8" s="24"/>
+    </row>
+    <row r="9" spans="2:78" x14ac:dyDescent="0.15">
       <c r="AP9" s="22"/>
       <c r="AQ9" s="22"/>
       <c r="AR9" s="22"/>
@@ -708,9 +993,30 @@
       <c r="AT9" s="22"/>
       <c r="AU9" s="22"/>
       <c r="AV9" s="22"/>
-    </row>
-    <row r="11" spans="2:50" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="2:50" x14ac:dyDescent="0.15">
+      <c r="BD9" s="24"/>
+      <c r="BE9" s="24"/>
+      <c r="BF9" s="24"/>
+      <c r="BG9" s="24"/>
+      <c r="BH9" s="24"/>
+      <c r="BI9" s="24"/>
+      <c r="BJ9" s="24"/>
+      <c r="BL9" s="24"/>
+      <c r="BM9" s="24"/>
+      <c r="BN9" s="24"/>
+      <c r="BO9" s="24"/>
+      <c r="BP9" s="24"/>
+      <c r="BQ9" s="24"/>
+      <c r="BR9" s="24"/>
+      <c r="BT9" s="24"/>
+      <c r="BU9" s="24"/>
+      <c r="BV9" s="24"/>
+      <c r="BW9" s="24"/>
+      <c r="BX9" s="24"/>
+      <c r="BY9" s="24"/>
+      <c r="BZ9" s="24"/>
+    </row>
+    <row r="11" spans="2:78" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="2:78" x14ac:dyDescent="0.15">
       <c r="AP12" s="2"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="3"/>
@@ -721,8 +1027,29 @@
       <c r="AX12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:50" x14ac:dyDescent="0.15">
+      <c r="BD12" s="27"/>
+      <c r="BE12" s="28"/>
+      <c r="BF12" s="28"/>
+      <c r="BG12" s="28"/>
+      <c r="BH12" s="28"/>
+      <c r="BI12" s="28"/>
+      <c r="BJ12" s="29"/>
+      <c r="BL12" s="27"/>
+      <c r="BM12" s="28"/>
+      <c r="BN12" s="28"/>
+      <c r="BO12" s="28"/>
+      <c r="BP12" s="28"/>
+      <c r="BQ12" s="28"/>
+      <c r="BR12" s="29"/>
+      <c r="BT12" s="27"/>
+      <c r="BU12" s="28"/>
+      <c r="BV12" s="28"/>
+      <c r="BW12" s="28"/>
+      <c r="BX12" s="28"/>
+      <c r="BY12" s="28"/>
+      <c r="BZ12" s="29"/>
+    </row>
+    <row r="13" spans="2:78" x14ac:dyDescent="0.15">
       <c r="AP13" s="9"/>
       <c r="AQ13" s="11"/>
       <c r="AR13" s="11"/>
@@ -730,8 +1057,29 @@
       <c r="AT13" s="11"/>
       <c r="AU13" s="11"/>
       <c r="AV13" s="5"/>
-    </row>
-    <row r="14" spans="2:50" x14ac:dyDescent="0.15">
+      <c r="BD13" s="30"/>
+      <c r="BE13" s="25"/>
+      <c r="BF13" s="25"/>
+      <c r="BG13" s="25"/>
+      <c r="BH13" s="25"/>
+      <c r="BI13" s="26"/>
+      <c r="BJ13" s="31"/>
+      <c r="BL13" s="30"/>
+      <c r="BM13" s="25"/>
+      <c r="BN13" s="25"/>
+      <c r="BO13" s="26"/>
+      <c r="BP13" s="25"/>
+      <c r="BQ13" s="25"/>
+      <c r="BR13" s="31"/>
+      <c r="BT13" s="30"/>
+      <c r="BU13" s="25"/>
+      <c r="BV13" s="25"/>
+      <c r="BW13" s="25"/>
+      <c r="BX13" s="25"/>
+      <c r="BY13" s="26"/>
+      <c r="BZ13" s="31"/>
+    </row>
+    <row r="14" spans="2:78" x14ac:dyDescent="0.15">
       <c r="AP14" s="9"/>
       <c r="AQ14" s="10"/>
       <c r="AR14" s="10"/>
@@ -739,8 +1087,29 @@
       <c r="AT14" s="11"/>
       <c r="AU14" s="11"/>
       <c r="AV14" s="5"/>
-    </row>
-    <row r="15" spans="2:50" x14ac:dyDescent="0.15">
+      <c r="BD14" s="30"/>
+      <c r="BE14" s="25"/>
+      <c r="BF14" s="25"/>
+      <c r="BG14" s="26"/>
+      <c r="BH14" s="25"/>
+      <c r="BI14" s="25"/>
+      <c r="BJ14" s="31"/>
+      <c r="BL14" s="30"/>
+      <c r="BM14" s="25"/>
+      <c r="BN14" s="25"/>
+      <c r="BO14" s="26"/>
+      <c r="BP14" s="25"/>
+      <c r="BQ14" s="25"/>
+      <c r="BR14" s="31"/>
+      <c r="BT14" s="30"/>
+      <c r="BU14" s="25"/>
+      <c r="BV14" s="25"/>
+      <c r="BW14" s="26"/>
+      <c r="BX14" s="25"/>
+      <c r="BY14" s="25"/>
+      <c r="BZ14" s="31"/>
+    </row>
+    <row r="15" spans="2:78" x14ac:dyDescent="0.15">
       <c r="AP15" s="9"/>
       <c r="AQ15" s="10"/>
       <c r="AR15" s="11"/>
@@ -748,8 +1117,29 @@
       <c r="AT15" s="11"/>
       <c r="AU15" s="10"/>
       <c r="AV15" s="5"/>
-    </row>
-    <row r="16" spans="2:50" x14ac:dyDescent="0.15">
+      <c r="BD15" s="30"/>
+      <c r="BE15" s="25"/>
+      <c r="BF15" s="25"/>
+      <c r="BG15" s="26"/>
+      <c r="BH15" s="25"/>
+      <c r="BI15" s="25"/>
+      <c r="BJ15" s="31"/>
+      <c r="BL15" s="30"/>
+      <c r="BM15" s="25"/>
+      <c r="BN15" s="25"/>
+      <c r="BO15" s="25"/>
+      <c r="BP15" s="25"/>
+      <c r="BQ15" s="25"/>
+      <c r="BR15" s="31"/>
+      <c r="BT15" s="30"/>
+      <c r="BU15" s="25"/>
+      <c r="BV15" s="25"/>
+      <c r="BW15" s="26"/>
+      <c r="BX15" s="25"/>
+      <c r="BY15" s="25"/>
+      <c r="BZ15" s="31"/>
+    </row>
+    <row r="16" spans="2:78" x14ac:dyDescent="0.15">
       <c r="AP16" s="9"/>
       <c r="AQ16" s="11"/>
       <c r="AR16" s="11"/>
@@ -757,8 +1147,29 @@
       <c r="AT16" s="10"/>
       <c r="AU16" s="10"/>
       <c r="AV16" s="5"/>
-    </row>
-    <row r="17" spans="42:50" x14ac:dyDescent="0.15">
+      <c r="BD16" s="30"/>
+      <c r="BE16" s="25"/>
+      <c r="BF16" s="25"/>
+      <c r="BG16" s="25"/>
+      <c r="BH16" s="25"/>
+      <c r="BI16" s="26"/>
+      <c r="BJ16" s="31"/>
+      <c r="BL16" s="30"/>
+      <c r="BM16" s="25"/>
+      <c r="BN16" s="25"/>
+      <c r="BO16" s="26"/>
+      <c r="BP16" s="25"/>
+      <c r="BQ16" s="25"/>
+      <c r="BR16" s="31"/>
+      <c r="BT16" s="30"/>
+      <c r="BU16" s="25"/>
+      <c r="BV16" s="25"/>
+      <c r="BW16" s="25"/>
+      <c r="BX16" s="25"/>
+      <c r="BY16" s="26"/>
+      <c r="BZ16" s="31"/>
+    </row>
+    <row r="17" spans="42:78" x14ac:dyDescent="0.15">
       <c r="AP17" s="9"/>
       <c r="AQ17" s="11"/>
       <c r="AR17" s="11"/>
@@ -766,8 +1177,29 @@
       <c r="AT17" s="11"/>
       <c r="AU17" s="11"/>
       <c r="AV17" s="5"/>
-    </row>
-    <row r="18" spans="42:50" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="BD17" s="30"/>
+      <c r="BE17" s="25"/>
+      <c r="BF17" s="25"/>
+      <c r="BG17" s="26"/>
+      <c r="BH17" s="26"/>
+      <c r="BI17" s="26"/>
+      <c r="BJ17" s="31"/>
+      <c r="BL17" s="30"/>
+      <c r="BM17" s="25"/>
+      <c r="BN17" s="25"/>
+      <c r="BO17" s="26"/>
+      <c r="BP17" s="25"/>
+      <c r="BQ17" s="25"/>
+      <c r="BR17" s="31"/>
+      <c r="BT17" s="30"/>
+      <c r="BU17" s="25"/>
+      <c r="BV17" s="25"/>
+      <c r="BW17" s="26"/>
+      <c r="BX17" s="26"/>
+      <c r="BY17" s="26"/>
+      <c r="BZ17" s="31"/>
+    </row>
+    <row r="18" spans="42:78" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="AP18" s="7"/>
       <c r="AQ18" s="8"/>
       <c r="AR18" s="8"/>
@@ -775,9 +1207,30 @@
       <c r="AT18" s="8"/>
       <c r="AU18" s="8"/>
       <c r="AV18" s="6"/>
-    </row>
-    <row r="20" spans="42:50" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="42:50" x14ac:dyDescent="0.15">
+      <c r="BD18" s="32"/>
+      <c r="BE18" s="33"/>
+      <c r="BF18" s="33"/>
+      <c r="BG18" s="33"/>
+      <c r="BH18" s="33"/>
+      <c r="BI18" s="33"/>
+      <c r="BJ18" s="34"/>
+      <c r="BL18" s="32"/>
+      <c r="BM18" s="33"/>
+      <c r="BN18" s="33"/>
+      <c r="BO18" s="33"/>
+      <c r="BP18" s="33"/>
+      <c r="BQ18" s="33"/>
+      <c r="BR18" s="34"/>
+      <c r="BT18" s="32"/>
+      <c r="BU18" s="33"/>
+      <c r="BV18" s="33"/>
+      <c r="BW18" s="33"/>
+      <c r="BX18" s="33"/>
+      <c r="BY18" s="33"/>
+      <c r="BZ18" s="34"/>
+    </row>
+    <row r="20" spans="42:78" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="42:78" x14ac:dyDescent="0.15">
       <c r="AP21" s="12">
         <v>0</v>
       </c>
@@ -802,8 +1255,71 @@
       <c r="AX21" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="42:50" x14ac:dyDescent="0.15">
+      <c r="BD21" s="27">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="28">
+        <v>0</v>
+      </c>
+      <c r="BF21" s="28">
+        <v>0</v>
+      </c>
+      <c r="BG21" s="28">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="28">
+        <v>0</v>
+      </c>
+      <c r="BI21" s="28">
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="29">
+        <v>0</v>
+      </c>
+      <c r="BL21" s="27">
+        <v>0</v>
+      </c>
+      <c r="BM21" s="28">
+        <v>0</v>
+      </c>
+      <c r="BN21" s="28">
+        <v>0</v>
+      </c>
+      <c r="BO21" s="28">
+        <v>0</v>
+      </c>
+      <c r="BP21" s="28">
+        <v>0</v>
+      </c>
+      <c r="BQ21" s="28">
+        <v>0</v>
+      </c>
+      <c r="BR21" s="29">
+        <v>0</v>
+      </c>
+      <c r="BT21" s="27">
+        <v>0</v>
+      </c>
+      <c r="BU21" s="28">
+        <v>0</v>
+      </c>
+      <c r="BV21" s="28">
+        <v>0</v>
+      </c>
+      <c r="BW21" s="28">
+        <v>0</v>
+      </c>
+      <c r="BX21" s="28">
+        <v>0</v>
+      </c>
+      <c r="BY21" s="28">
+        <v>0</v>
+      </c>
+      <c r="BZ21" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="42:78" x14ac:dyDescent="0.15">
       <c r="AP22" s="15">
         <v>0</v>
       </c>
@@ -825,8 +1341,71 @@
       <c r="AV22" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="42:50" x14ac:dyDescent="0.15">
+      <c r="BD22" s="30">
+        <v>0</v>
+      </c>
+      <c r="BE22" s="25">
+        <v>1</v>
+      </c>
+      <c r="BF22" s="25">
+        <v>1</v>
+      </c>
+      <c r="BG22" s="25">
+        <v>1</v>
+      </c>
+      <c r="BH22" s="25">
+        <v>1</v>
+      </c>
+      <c r="BI22" s="26">
+        <v>0</v>
+      </c>
+      <c r="BJ22" s="31">
+        <v>0</v>
+      </c>
+      <c r="BL22" s="30">
+        <v>0</v>
+      </c>
+      <c r="BM22" s="25">
+        <v>1</v>
+      </c>
+      <c r="BN22" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO22" s="26">
+        <v>0</v>
+      </c>
+      <c r="BP22" s="25">
+        <v>1</v>
+      </c>
+      <c r="BQ22" s="25">
+        <v>1</v>
+      </c>
+      <c r="BR22" s="31">
+        <v>0</v>
+      </c>
+      <c r="BT22" s="30">
+        <v>0</v>
+      </c>
+      <c r="BU22" s="25">
+        <v>1</v>
+      </c>
+      <c r="BV22" s="25">
+        <v>1</v>
+      </c>
+      <c r="BW22" s="25">
+        <v>1</v>
+      </c>
+      <c r="BX22" s="25">
+        <v>1</v>
+      </c>
+      <c r="BY22" s="26">
+        <v>0</v>
+      </c>
+      <c r="BZ22" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="42:78" x14ac:dyDescent="0.15">
       <c r="AP23" s="15">
         <v>0</v>
       </c>
@@ -848,8 +1427,71 @@
       <c r="AV23" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="42:50" x14ac:dyDescent="0.15">
+      <c r="BD23" s="30">
+        <v>0</v>
+      </c>
+      <c r="BE23" s="25">
+        <v>1</v>
+      </c>
+      <c r="BF23" s="25">
+        <v>1</v>
+      </c>
+      <c r="BG23" s="26">
+        <v>0</v>
+      </c>
+      <c r="BH23" s="25">
+        <v>1</v>
+      </c>
+      <c r="BI23" s="25">
+        <v>1</v>
+      </c>
+      <c r="BJ23" s="31">
+        <v>0</v>
+      </c>
+      <c r="BL23" s="30">
+        <v>0</v>
+      </c>
+      <c r="BM23" s="25">
+        <v>1</v>
+      </c>
+      <c r="BN23" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO23" s="26">
+        <v>0</v>
+      </c>
+      <c r="BP23" s="25">
+        <v>1</v>
+      </c>
+      <c r="BQ23" s="25">
+        <v>1</v>
+      </c>
+      <c r="BR23" s="31">
+        <v>0</v>
+      </c>
+      <c r="BT23" s="30">
+        <v>0</v>
+      </c>
+      <c r="BU23" s="25">
+        <v>1</v>
+      </c>
+      <c r="BV23" s="25">
+        <v>1</v>
+      </c>
+      <c r="BW23" s="26">
+        <v>0</v>
+      </c>
+      <c r="BX23" s="25">
+        <v>1</v>
+      </c>
+      <c r="BY23" s="25">
+        <v>1</v>
+      </c>
+      <c r="BZ23" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="42:78" x14ac:dyDescent="0.15">
       <c r="AP24" s="15">
         <v>0</v>
       </c>
@@ -871,8 +1513,71 @@
       <c r="AV24" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="42:50" x14ac:dyDescent="0.15">
+      <c r="BD24" s="30">
+        <v>0</v>
+      </c>
+      <c r="BE24" s="25">
+        <v>1</v>
+      </c>
+      <c r="BF24" s="25">
+        <v>1</v>
+      </c>
+      <c r="BG24" s="26">
+        <v>0</v>
+      </c>
+      <c r="BH24" s="25">
+        <v>1</v>
+      </c>
+      <c r="BI24" s="25">
+        <v>1</v>
+      </c>
+      <c r="BJ24" s="31">
+        <v>0</v>
+      </c>
+      <c r="BL24" s="30">
+        <v>0</v>
+      </c>
+      <c r="BM24" s="25">
+        <v>1</v>
+      </c>
+      <c r="BN24" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO24" s="25">
+        <v>1</v>
+      </c>
+      <c r="BP24" s="25">
+        <v>1</v>
+      </c>
+      <c r="BQ24" s="25">
+        <v>1</v>
+      </c>
+      <c r="BR24" s="31">
+        <v>0</v>
+      </c>
+      <c r="BT24" s="30">
+        <v>0</v>
+      </c>
+      <c r="BU24" s="25">
+        <v>1</v>
+      </c>
+      <c r="BV24" s="25">
+        <v>1</v>
+      </c>
+      <c r="BW24" s="26">
+        <v>0</v>
+      </c>
+      <c r="BX24" s="25">
+        <v>1</v>
+      </c>
+      <c r="BY24" s="25">
+        <v>1</v>
+      </c>
+      <c r="BZ24" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="42:78" x14ac:dyDescent="0.15">
       <c r="AP25" s="15">
         <v>0</v>
       </c>
@@ -894,8 +1599,71 @@
       <c r="AV25" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="42:50" x14ac:dyDescent="0.15">
+      <c r="BD25" s="30">
+        <v>0</v>
+      </c>
+      <c r="BE25" s="25">
+        <v>1</v>
+      </c>
+      <c r="BF25" s="25">
+        <v>1</v>
+      </c>
+      <c r="BG25" s="25">
+        <v>1</v>
+      </c>
+      <c r="BH25" s="25">
+        <v>1</v>
+      </c>
+      <c r="BI25" s="26">
+        <v>0</v>
+      </c>
+      <c r="BJ25" s="31">
+        <v>0</v>
+      </c>
+      <c r="BL25" s="30">
+        <v>0</v>
+      </c>
+      <c r="BM25" s="25">
+        <v>1</v>
+      </c>
+      <c r="BN25" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO25" s="26">
+        <v>0</v>
+      </c>
+      <c r="BP25" s="25">
+        <v>1</v>
+      </c>
+      <c r="BQ25" s="25">
+        <v>1</v>
+      </c>
+      <c r="BR25" s="31">
+        <v>0</v>
+      </c>
+      <c r="BT25" s="30">
+        <v>0</v>
+      </c>
+      <c r="BU25" s="25">
+        <v>1</v>
+      </c>
+      <c r="BV25" s="25">
+        <v>1</v>
+      </c>
+      <c r="BW25" s="25">
+        <v>1</v>
+      </c>
+      <c r="BX25" s="25">
+        <v>1</v>
+      </c>
+      <c r="BY25" s="26">
+        <v>0</v>
+      </c>
+      <c r="BZ25" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="42:78" x14ac:dyDescent="0.15">
       <c r="AP26" s="15">
         <v>0</v>
       </c>
@@ -917,8 +1685,71 @@
       <c r="AV26" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="42:50" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="BD26" s="30">
+        <v>0</v>
+      </c>
+      <c r="BE26" s="25">
+        <v>1</v>
+      </c>
+      <c r="BF26" s="25">
+        <v>1</v>
+      </c>
+      <c r="BG26" s="26">
+        <v>0</v>
+      </c>
+      <c r="BH26" s="26">
+        <v>0</v>
+      </c>
+      <c r="BI26" s="26">
+        <v>0</v>
+      </c>
+      <c r="BJ26" s="31">
+        <v>0</v>
+      </c>
+      <c r="BL26" s="30">
+        <v>0</v>
+      </c>
+      <c r="BM26" s="25">
+        <v>1</v>
+      </c>
+      <c r="BN26" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO26" s="26">
+        <v>0</v>
+      </c>
+      <c r="BP26" s="25">
+        <v>1</v>
+      </c>
+      <c r="BQ26" s="25">
+        <v>1</v>
+      </c>
+      <c r="BR26" s="31">
+        <v>0</v>
+      </c>
+      <c r="BT26" s="30">
+        <v>0</v>
+      </c>
+      <c r="BU26" s="25">
+        <v>1</v>
+      </c>
+      <c r="BV26" s="25">
+        <v>1</v>
+      </c>
+      <c r="BW26" s="26">
+        <v>0</v>
+      </c>
+      <c r="BX26" s="26">
+        <v>0</v>
+      </c>
+      <c r="BY26" s="26">
+        <v>0</v>
+      </c>
+      <c r="BZ26" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="42:78" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="AP27" s="19">
         <v>0</v>
       </c>
@@ -940,8 +1771,71 @@
       <c r="AV27" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="42:50" x14ac:dyDescent="0.15">
+      <c r="BD27" s="32">
+        <v>0</v>
+      </c>
+      <c r="BE27" s="33">
+        <v>0</v>
+      </c>
+      <c r="BF27" s="33">
+        <v>0</v>
+      </c>
+      <c r="BG27" s="33">
+        <v>0</v>
+      </c>
+      <c r="BH27" s="33">
+        <v>0</v>
+      </c>
+      <c r="BI27" s="33">
+        <v>0</v>
+      </c>
+      <c r="BJ27" s="34">
+        <v>0</v>
+      </c>
+      <c r="BL27" s="32">
+        <v>0</v>
+      </c>
+      <c r="BM27" s="33">
+        <v>0</v>
+      </c>
+      <c r="BN27" s="33">
+        <v>0</v>
+      </c>
+      <c r="BO27" s="33">
+        <v>0</v>
+      </c>
+      <c r="BP27" s="33">
+        <v>0</v>
+      </c>
+      <c r="BQ27" s="33">
+        <v>0</v>
+      </c>
+      <c r="BR27" s="34">
+        <v>0</v>
+      </c>
+      <c r="BT27" s="32">
+        <v>0</v>
+      </c>
+      <c r="BU27" s="33">
+        <v>0</v>
+      </c>
+      <c r="BV27" s="33">
+        <v>0</v>
+      </c>
+      <c r="BW27" s="33">
+        <v>0</v>
+      </c>
+      <c r="BX27" s="33">
+        <v>0</v>
+      </c>
+      <c r="BY27" s="33">
+        <v>0</v>
+      </c>
+      <c r="BZ27" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="42:78" x14ac:dyDescent="0.15">
       <c r="AP30">
         <v>0</v>
       </c>
@@ -966,8 +1860,71 @@
       <c r="AX30" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="42:50" x14ac:dyDescent="0.15">
+      <c r="BD30">
+        <v>0</v>
+      </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
+      <c r="BF30">
+        <v>0</v>
+      </c>
+      <c r="BG30">
+        <v>0</v>
+      </c>
+      <c r="BH30">
+        <v>0</v>
+      </c>
+      <c r="BI30">
+        <v>0</v>
+      </c>
+      <c r="BJ30">
+        <v>0</v>
+      </c>
+      <c r="BL30">
+        <v>0</v>
+      </c>
+      <c r="BM30">
+        <v>0</v>
+      </c>
+      <c r="BN30">
+        <v>0</v>
+      </c>
+      <c r="BO30">
+        <v>0</v>
+      </c>
+      <c r="BP30">
+        <v>0</v>
+      </c>
+      <c r="BQ30">
+        <v>0</v>
+      </c>
+      <c r="BR30">
+        <v>0</v>
+      </c>
+      <c r="BT30">
+        <v>0</v>
+      </c>
+      <c r="BU30">
+        <v>0</v>
+      </c>
+      <c r="BV30">
+        <v>0</v>
+      </c>
+      <c r="BW30">
+        <v>0</v>
+      </c>
+      <c r="BX30">
+        <v>0</v>
+      </c>
+      <c r="BY30">
+        <v>0</v>
+      </c>
+      <c r="BZ30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="42:78" x14ac:dyDescent="0.15">
       <c r="AP31">
         <v>0</v>
       </c>
@@ -989,8 +1946,71 @@
       <c r="AV31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="42:50" x14ac:dyDescent="0.15">
+      <c r="BD31">
+        <v>0</v>
+      </c>
+      <c r="BE31">
+        <v>1</v>
+      </c>
+      <c r="BF31">
+        <v>1</v>
+      </c>
+      <c r="BG31">
+        <v>1</v>
+      </c>
+      <c r="BH31">
+        <v>1</v>
+      </c>
+      <c r="BI31">
+        <v>0</v>
+      </c>
+      <c r="BJ31">
+        <v>0</v>
+      </c>
+      <c r="BL31">
+        <v>0</v>
+      </c>
+      <c r="BM31">
+        <v>1</v>
+      </c>
+      <c r="BN31">
+        <v>1</v>
+      </c>
+      <c r="BO31">
+        <v>0</v>
+      </c>
+      <c r="BP31">
+        <v>1</v>
+      </c>
+      <c r="BQ31">
+        <v>1</v>
+      </c>
+      <c r="BR31">
+        <v>0</v>
+      </c>
+      <c r="BT31">
+        <v>0</v>
+      </c>
+      <c r="BU31">
+        <v>1</v>
+      </c>
+      <c r="BV31">
+        <v>1</v>
+      </c>
+      <c r="BW31">
+        <v>1</v>
+      </c>
+      <c r="BX31">
+        <v>1</v>
+      </c>
+      <c r="BY31">
+        <v>0</v>
+      </c>
+      <c r="BZ31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="42:78" x14ac:dyDescent="0.15">
       <c r="AP32">
         <v>0</v>
       </c>
@@ -1012,8 +2032,71 @@
       <c r="AV32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="42:48" x14ac:dyDescent="0.15">
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>1</v>
+      </c>
+      <c r="BF32">
+        <v>1</v>
+      </c>
+      <c r="BG32">
+        <v>0</v>
+      </c>
+      <c r="BH32">
+        <v>1</v>
+      </c>
+      <c r="BI32">
+        <v>1</v>
+      </c>
+      <c r="BJ32">
+        <v>0</v>
+      </c>
+      <c r="BL32">
+        <v>0</v>
+      </c>
+      <c r="BM32">
+        <v>1</v>
+      </c>
+      <c r="BN32">
+        <v>1</v>
+      </c>
+      <c r="BO32">
+        <v>0</v>
+      </c>
+      <c r="BP32">
+        <v>1</v>
+      </c>
+      <c r="BQ32">
+        <v>1</v>
+      </c>
+      <c r="BR32">
+        <v>0</v>
+      </c>
+      <c r="BT32">
+        <v>0</v>
+      </c>
+      <c r="BU32">
+        <v>1</v>
+      </c>
+      <c r="BV32">
+        <v>1</v>
+      </c>
+      <c r="BW32">
+        <v>0</v>
+      </c>
+      <c r="BX32">
+        <v>1</v>
+      </c>
+      <c r="BY32">
+        <v>1</v>
+      </c>
+      <c r="BZ32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="42:78" x14ac:dyDescent="0.15">
       <c r="AP33">
         <v>0</v>
       </c>
@@ -1035,8 +2118,71 @@
       <c r="AV33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="42:48" x14ac:dyDescent="0.15">
+      <c r="BD33">
+        <v>0</v>
+      </c>
+      <c r="BE33">
+        <v>1</v>
+      </c>
+      <c r="BF33">
+        <v>1</v>
+      </c>
+      <c r="BG33">
+        <v>0</v>
+      </c>
+      <c r="BH33">
+        <v>1</v>
+      </c>
+      <c r="BI33">
+        <v>1</v>
+      </c>
+      <c r="BJ33">
+        <v>0</v>
+      </c>
+      <c r="BL33">
+        <v>0</v>
+      </c>
+      <c r="BM33">
+        <v>1</v>
+      </c>
+      <c r="BN33">
+        <v>1</v>
+      </c>
+      <c r="BO33">
+        <v>1</v>
+      </c>
+      <c r="BP33">
+        <v>1</v>
+      </c>
+      <c r="BQ33">
+        <v>1</v>
+      </c>
+      <c r="BR33">
+        <v>0</v>
+      </c>
+      <c r="BT33">
+        <v>0</v>
+      </c>
+      <c r="BU33">
+        <v>1</v>
+      </c>
+      <c r="BV33">
+        <v>1</v>
+      </c>
+      <c r="BW33">
+        <v>0</v>
+      </c>
+      <c r="BX33">
+        <v>1</v>
+      </c>
+      <c r="BY33">
+        <v>1</v>
+      </c>
+      <c r="BZ33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="42:78" x14ac:dyDescent="0.15">
       <c r="AP34">
         <v>0</v>
       </c>
@@ -1058,8 +2204,71 @@
       <c r="AV34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="42:48" x14ac:dyDescent="0.15">
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BE34">
+        <v>1</v>
+      </c>
+      <c r="BF34">
+        <v>1</v>
+      </c>
+      <c r="BG34">
+        <v>1</v>
+      </c>
+      <c r="BH34">
+        <v>1</v>
+      </c>
+      <c r="BI34">
+        <v>0</v>
+      </c>
+      <c r="BJ34">
+        <v>0</v>
+      </c>
+      <c r="BL34">
+        <v>0</v>
+      </c>
+      <c r="BM34">
+        <v>1</v>
+      </c>
+      <c r="BN34">
+        <v>1</v>
+      </c>
+      <c r="BO34">
+        <v>0</v>
+      </c>
+      <c r="BP34">
+        <v>1</v>
+      </c>
+      <c r="BQ34">
+        <v>1</v>
+      </c>
+      <c r="BR34">
+        <v>0</v>
+      </c>
+      <c r="BT34">
+        <v>0</v>
+      </c>
+      <c r="BU34">
+        <v>1</v>
+      </c>
+      <c r="BV34">
+        <v>1</v>
+      </c>
+      <c r="BW34">
+        <v>1</v>
+      </c>
+      <c r="BX34">
+        <v>1</v>
+      </c>
+      <c r="BY34">
+        <v>0</v>
+      </c>
+      <c r="BZ34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="42:78" x14ac:dyDescent="0.15">
       <c r="AP35">
         <v>0</v>
       </c>
@@ -1081,8 +2290,71 @@
       <c r="AV35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="42:48" x14ac:dyDescent="0.15">
+      <c r="BD35">
+        <v>0</v>
+      </c>
+      <c r="BE35">
+        <v>1</v>
+      </c>
+      <c r="BF35">
+        <v>1</v>
+      </c>
+      <c r="BG35">
+        <v>0</v>
+      </c>
+      <c r="BH35">
+        <v>0</v>
+      </c>
+      <c r="BI35">
+        <v>0</v>
+      </c>
+      <c r="BJ35">
+        <v>0</v>
+      </c>
+      <c r="BL35">
+        <v>0</v>
+      </c>
+      <c r="BM35">
+        <v>1</v>
+      </c>
+      <c r="BN35">
+        <v>1</v>
+      </c>
+      <c r="BO35">
+        <v>0</v>
+      </c>
+      <c r="BP35">
+        <v>1</v>
+      </c>
+      <c r="BQ35">
+        <v>1</v>
+      </c>
+      <c r="BR35">
+        <v>0</v>
+      </c>
+      <c r="BT35">
+        <v>0</v>
+      </c>
+      <c r="BU35">
+        <v>1</v>
+      </c>
+      <c r="BV35">
+        <v>1</v>
+      </c>
+      <c r="BW35">
+        <v>0</v>
+      </c>
+      <c r="BX35">
+        <v>0</v>
+      </c>
+      <c r="BY35">
+        <v>0</v>
+      </c>
+      <c r="BZ35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="42:78" x14ac:dyDescent="0.15">
       <c r="AP36">
         <v>0</v>
       </c>
@@ -1102,6 +2374,69 @@
         <v>0</v>
       </c>
       <c r="AV36">
+        <v>0</v>
+      </c>
+      <c r="BD36">
+        <v>0</v>
+      </c>
+      <c r="BE36">
+        <v>0</v>
+      </c>
+      <c r="BF36">
+        <v>0</v>
+      </c>
+      <c r="BG36">
+        <v>0</v>
+      </c>
+      <c r="BH36">
+        <v>0</v>
+      </c>
+      <c r="BI36">
+        <v>0</v>
+      </c>
+      <c r="BJ36">
+        <v>0</v>
+      </c>
+      <c r="BL36">
+        <v>0</v>
+      </c>
+      <c r="BM36">
+        <v>0</v>
+      </c>
+      <c r="BN36">
+        <v>0</v>
+      </c>
+      <c r="BO36">
+        <v>0</v>
+      </c>
+      <c r="BP36">
+        <v>0</v>
+      </c>
+      <c r="BQ36">
+        <v>0</v>
+      </c>
+      <c r="BR36">
+        <v>0</v>
+      </c>
+      <c r="BT36">
+        <v>0</v>
+      </c>
+      <c r="BU36">
+        <v>0</v>
+      </c>
+      <c r="BV36">
+        <v>0</v>
+      </c>
+      <c r="BW36">
+        <v>0</v>
+      </c>
+      <c r="BX36">
+        <v>0</v>
+      </c>
+      <c r="BY36">
+        <v>0</v>
+      </c>
+      <c r="BZ36">
         <v>0</v>
       </c>
     </row>
